--- a/window/windowList_appCore.xlsx
+++ b/window/windowList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D84482-16F9-4C97-A835-5B90068DAC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC0CC9-71F3-43EA-8CED-56A0B9D16B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="259">
   <si>
     <t>Codice</t>
   </si>
@@ -289,6 +289,522 @@
   </si>
   <si>
     <t>YVSOH2</t>
+  </si>
+  <si>
+    <t>* Backend</t>
+  </si>
+  <si>
+    <t>YCREAUSC</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Registra</t>
+  </si>
+  <si>
+    <t>YCREASOH</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
+  </si>
+  <si>
+    <t>Pulisci</t>
+  </si>
+  <si>
+    <t>YCALCGC</t>
+  </si>
+  <si>
+    <t>YCLEARCGC</t>
+  </si>
+  <si>
+    <t>YCREABPC</t>
+  </si>
+  <si>
+    <t>*Backend</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Indietro</t>
+  </si>
+  <si>
+    <t>Avanti</t>
+  </si>
+  <si>
+    <t>YCLEARVSOH</t>
+  </si>
+  <si>
+    <t>YSOHPREV</t>
+  </si>
+  <si>
+    <t>YSOHNEXT</t>
+  </si>
+  <si>
+    <t>YCRCVBPC</t>
+  </si>
+  <si>
+    <t>YCLEARVBPC</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]FCY</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]IPTDAT</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]TRSFAM</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]ITMREF</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]STU</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]QTYSTU</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]LOC</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]STA</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]LOT</t>
+  </si>
+  <si>
+    <t>[M:YSMO1]SERNUM</t>
+  </si>
+  <si>
+    <t>SOHNUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FCY</t>
+  </si>
+  <si>
+    <t>SOHTYP</t>
+  </si>
+  <si>
+    <t>ORDDAT</t>
+  </si>
+  <si>
+    <t>BPRNUM</t>
+  </si>
+  <si>
+    <t>BPRNAM</t>
+  </si>
+  <si>
+    <t>BPAADDLIG</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>DEMDLVDAT</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>GROPRI</t>
+  </si>
+  <si>
+    <t>DISCRGVAL2</t>
+  </si>
+  <si>
+    <t>DISCRGVAL1</t>
+  </si>
+  <si>
+    <t>NETPRI</t>
+  </si>
+  <si>
+    <t>YTOTALE</t>
+  </si>
+  <si>
+    <t>Nr ordine</t>
+  </si>
+  <si>
+    <t>Tipo di Ordine</t>
+  </si>
+  <si>
+    <t>Data ordine</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]FCY</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]SOHNUM</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]SAU</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]QTY</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]GROPRI</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]DISCRGVAL1</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]DISCRGVAL2</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]NETPRI</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]YTOTALE</t>
+  </si>
+  <si>
+    <t>Numero terzo</t>
+  </si>
+  <si>
+    <t>Nome del terzo</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>Data Consegna richiesta</t>
+  </si>
+  <si>
+    <t>Response ArgoX3Mobile</t>
+  </si>
+  <si>
+    <t>Response azione AX3M</t>
+  </si>
+  <si>
+    <t>Articolo</t>
+  </si>
+  <si>
+    <t>Unità di vendita</t>
+  </si>
+  <si>
+    <t>Quantità</t>
+  </si>
+  <si>
+    <t>Prezzo Lordo</t>
+  </si>
+  <si>
+    <t>Sconto1</t>
+  </si>
+  <si>
+    <t>Sconto2</t>
+  </si>
+  <si>
+    <t>Prezzo netto</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]SOHTYP</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]ORDDAT</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]BPRNUM</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]BPRNAM</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]BPAADDLIG</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]CUR</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]DEMDLVDAT</t>
+  </si>
+  <si>
+    <t>[M:YSOH1]ITMREF</t>
+  </si>
+  <si>
+    <t>YLAYOUT</t>
+  </si>
+  <si>
+    <t>YCODICE</t>
+  </si>
+  <si>
+    <t>EANCOD</t>
+  </si>
+  <si>
+    <t>YLOC</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY </t>
+  </si>
+  <si>
+    <t>Definizione tipologia videata</t>
+  </si>
+  <si>
+    <t>Codice Art-Eancod-Matricola</t>
+  </si>
+  <si>
+    <t>Codice EAN</t>
+  </si>
+  <si>
+    <t>Ubicazione Custom</t>
+  </si>
+  <si>
+    <t>Stato stock</t>
+  </si>
+  <si>
+    <t>Unità Mag.</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]FCY</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]YCODICE</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]LOC</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]ITMREF</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]EANCOD</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]SERNUM</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]YLOC</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]LOT</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]STA</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]QTY</t>
+  </si>
+  <si>
+    <t>[M:YCGC1]STU</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>BPCNUM</t>
+  </si>
+  <si>
+    <t>EECNUM</t>
+  </si>
+  <si>
+    <t>BPAADD</t>
+  </si>
+  <si>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>POSCOD</t>
+  </si>
+  <si>
+    <t>CTY</t>
+  </si>
+  <si>
+    <t>Categoria Cliente</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Partita IVA</t>
+  </si>
+  <si>
+    <t>Categoria Indirizzo</t>
+  </si>
+  <si>
+    <t>Paese</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Città</t>
+  </si>
+  <si>
+    <t>[M:YBPC]BCG</t>
+  </si>
+  <si>
+    <t>[M:YBPC]BPCNUM</t>
+  </si>
+  <si>
+    <t>[M:YBPC]BPRNAM</t>
+  </si>
+  <si>
+    <t>[M:YBPC]EECNUM</t>
+  </si>
+  <si>
+    <t>[M:YBPC]BPAADD</t>
+  </si>
+  <si>
+    <t>[M:YBPC]BPAADDLIG</t>
+  </si>
+  <si>
+    <t>[M:YBPC]CRY</t>
+  </si>
+  <si>
+    <t>[M:YBPC]POSCOD</t>
+  </si>
+  <si>
+    <t>[M:YBPC]CTY</t>
+  </si>
+  <si>
+    <t>* manca il ricerca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID</t>
+  </si>
+  <si>
+    <t>BPCNAM</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>SOPLIN</t>
+  </si>
+  <si>
+    <t>ITMDES1</t>
+  </si>
+  <si>
+    <t>YNEXTPREV</t>
+  </si>
+  <si>
+    <t>Identificativo</t>
+  </si>
+  <si>
+    <t>Ragione Sociale Cliente</t>
+  </si>
+  <si>
+    <t>indirizzi email</t>
+  </si>
+  <si>
+    <t>Riga ordine</t>
+  </si>
+  <si>
+    <t>Descrizione Articolo 1</t>
+  </si>
+  <si>
+    <t>Prezzo lordo</t>
+  </si>
+  <si>
+    <t>Naviga</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]ID</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]BPCNAM</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]EECNUM</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]CTY</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]CRY</t>
+  </si>
+  <si>
+    <t>[M:YVSOH]WEB</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]SOHNUM</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]SOPLIN</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]ITMREF</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]ITMDES1</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]QTY</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]GROPRI</t>
+  </si>
+  <si>
+    <t>[M:YVSOH2]YNEXTPREV</t>
+  </si>
+  <si>
+    <t>YBPCNUM</t>
+  </si>
+  <si>
+    <t>YBPRNAM</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>Ragione Sociale</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Indirizzi email</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]BPCNUM</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]CTY</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]TEL</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]WEB</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]BPRNAM</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]EECNUM</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]BPAADD</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]YBPCNUM</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]YBPRNAM</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]BPAADDLIG</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]CRY</t>
+  </si>
+  <si>
+    <t>[M:VYBPC]POSCOD</t>
   </si>
 </sst>
 </file>
@@ -326,7 +842,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -371,11 +887,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -402,7 +1018,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,24 +1337,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -728,7 +1380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -754,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -780,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -806,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -832,8 +1484,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -858,8 +1510,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -884,8 +1536,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -908,6 +1560,11 @@
       </c>
       <c r="H8" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -924,13 +1581,13 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -952,26 +1609,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F694E480-D1C0-4306-B7E3-8547E8554411}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1653,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1017,6 +1674,244 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1026,23 +1921,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1062,264 +1957,3169 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="20" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F134" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/window/windowList_appCore.xlsx
+++ b/window/windowList_appCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC0CC9-71F3-43EA-8CED-56A0B9D16B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD41730-B968-4010-9D67-84316CB61F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="265">
   <si>
     <t>Codice</t>
   </si>
@@ -291,9 +291,6 @@
     <t>YVSOH2</t>
   </si>
   <si>
-    <t>* Backend</t>
-  </si>
-  <si>
     <t>YCREAUSC</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>YCREABPC</t>
   </si>
   <si>
-    <t>*Backend</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -805,6 +799,30 @@
   </si>
   <si>
     <t>[M:VYBPC]POSCOD</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>YAX3MB*</t>
+  </si>
+  <si>
+    <t>Backend utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>YAXMUSR</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Crea/Aggiorna</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>YAX3MB</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1030,22 +1048,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1340,7 +1349,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1573,28 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>257</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1642,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -1707,16 +1737,16 @@
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -1736,10 +1766,10 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -1753,16 +1783,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
@@ -1776,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -1785,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -1799,22 +1829,22 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1825,16 +1855,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
@@ -1848,16 +1878,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -1871,16 +1901,16 @@
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -1900,18 +1930,59 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>260</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
       <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
@@ -1958,262 +2029,262 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2242,66 +2313,66 @@
         <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>108</v>
+      <c r="F17" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>109</v>
+      <c r="F18" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2309,19 +2380,19 @@
       <c r="A20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2329,140 +2400,140 @@
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>110</v>
+      <c r="F21" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>111</v>
+      <c r="F22" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>112</v>
+      <c r="F23" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>113</v>
+      <c r="F24" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>114</v>
+      <c r="F25" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>115</v>
+      <c r="F26" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>116</v>
+      <c r="F27" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,198 +2549,198 @@
         <v>76</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>136</v>
+      <c r="F30" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>160</v>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>161</v>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>162</v>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>163</v>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>164</v>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>165</v>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>166</v>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2677,19 +2748,19 @@
       <c r="A39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2697,160 +2768,160 @@
       <c r="A40" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>167</v>
+      <c r="E40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>138</v>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>139</v>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>140</v>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>141</v>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>142</v>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>143</v>
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>144</v>
+      <c r="B47" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F49" s="12">
         <v>2</v>
@@ -2877,79 +2948,79 @@
       <c r="A50" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>180</v>
+      <c r="F50" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>181</v>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>182</v>
+      <c r="F52" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="E53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2957,19 +3028,19 @@
       <c r="A54" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="15" t="s">
+      <c r="E54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2977,160 +3048,160 @@
       <c r="A55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>183</v>
+      <c r="E55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>184</v>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="16" t="s">
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>185</v>
+      <c r="F57" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>186</v>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>187</v>
+      <c r="F59" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="16" t="s">
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>188</v>
+      <c r="E60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>189</v>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="19" t="s">
+      <c r="B62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>190</v>
+      <c r="E62" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,78 +3209,78 @@
         <v>78</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>181</v>
+      <c r="B64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>182</v>
+      <c r="F65" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="E66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3217,19 +3288,19 @@
       <c r="A67" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="15" t="s">
+      <c r="E67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3237,160 +3308,160 @@
       <c r="A68" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>183</v>
+      <c r="E68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>184</v>
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>185</v>
+      <c r="F70" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>186</v>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>187</v>
+      <c r="F72" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="16" t="s">
+      <c r="B73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>188</v>
+      <c r="E73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>189</v>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="19" t="s">
+      <c r="B75" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>190</v>
+      <c r="E75" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,98 +3469,98 @@
         <v>82</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>206</v>
+      <c r="B78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>207</v>
+      <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>208</v>
+      <c r="B80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="14" t="s">
+      <c r="B81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F81" s="15" t="s">
+      <c r="E81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3497,19 +3568,19 @@
       <c r="A82" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="14" t="s">
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="E82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3517,125 +3588,125 @@
       <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>209</v>
+      <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>210</v>
+      <c r="B84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>211</v>
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>212</v>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>213</v>
+      <c r="B87" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
@@ -3645,300 +3716,300 @@
       <c r="A90" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>228</v>
+      <c r="B90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>229</v>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>230</v>
+      <c r="B92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>231</v>
+      <c r="B93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>232</v>
+      <c r="B94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G95" s="16"/>
+      <c r="B95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>234</v>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>235</v>
+      <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="16" t="s">
+      <c r="B98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>236</v>
+      <c r="E98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>237</v>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>238</v>
+      <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>239</v>
+      <c r="B101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>240</v>
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103" s="14" t="s">
+      <c r="B103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F103" s="15" t="s">
+      <c r="E103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="18" t="s">
+      <c r="B104" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="20" t="s">
+      <c r="E104" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3946,279 +4017,279 @@
       <c r="A105" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>228</v>
+      <c r="B105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>229</v>
+      <c r="B106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>230</v>
+      <c r="B107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>231</v>
+      <c r="B108" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>232</v>
+      <c r="B109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>233</v>
+      <c r="B110" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>234</v>
+      <c r="B111" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>235</v>
+      <c r="B112" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="16" t="s">
+      <c r="B113" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>236</v>
+      <c r="E113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>237</v>
+      <c r="B114" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>238</v>
+      <c r="B115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>239</v>
+      <c r="B116" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>240</v>
+      <c r="B117" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D118" s="14" t="s">
+      <c r="B118" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118" s="15" t="s">
+      <c r="E118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4226,19 +4297,19 @@
       <c r="A119" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" s="14" t="s">
+      <c r="B119" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F119" s="15" t="s">
+      <c r="E119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F119" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4247,298 +4318,298 @@
         <v>83</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>229</v>
+      <c r="B121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>230</v>
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>231</v>
+      <c r="B123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>232</v>
+      <c r="B124" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>233</v>
+      <c r="B125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>234</v>
+      <c r="B126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>235</v>
+      <c r="B127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="16" t="s">
+      <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>236</v>
+      <c r="E128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>237</v>
+      <c r="B129" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>238</v>
+      <c r="B130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>239</v>
+      <c r="B131" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>240</v>
+      <c r="B132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="14" t="s">
+      <c r="B133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E133" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F133" s="15" t="s">
+      <c r="E133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B134" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="18" t="s">
+      <c r="B134" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F134" s="20" t="s">
+      <c r="E134" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4547,16 +4618,16 @@
         <v>84</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F136" s="12">
         <v>2</v>
@@ -4566,99 +4637,99 @@
       <c r="A137" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>247</v>
+      <c r="B137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>251</v>
+      <c r="B138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>252</v>
+      <c r="B139" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>253</v>
+      <c r="B140" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="14" t="s">
+      <c r="B141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141" s="15" t="s">
+      <c r="E141" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F141" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4666,19 +4737,19 @@
       <c r="A142" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="14" t="s">
+      <c r="B142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F142" s="15" t="s">
+      <c r="E142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4686,160 +4757,160 @@
       <c r="A143" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>254</v>
+      <c r="B143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="16" t="s">
+      <c r="B144" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>255</v>
+      <c r="F144" s="14" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>256</v>
+      <c r="B145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>257</v>
+      <c r="B146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>258</v>
+      <c r="B147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>248</v>
+      <c r="B148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="16" t="s">
+      <c r="B149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E149" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>249</v>
+      <c r="F149" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B150" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E150" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>250</v>
+      <c r="B150" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4853,92 +4924,92 @@
         <v>27</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>251</v>
+      <c r="B152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B153" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>252</v>
+      <c r="B153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>253</v>
+      <c r="B154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B155" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="14" t="s">
+      <c r="B155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E155" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F155" s="15" t="s">
+      <c r="E155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4946,19 +5017,19 @@
       <c r="A156" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="14" t="s">
+      <c r="B156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E156" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F156" s="15" t="s">
+      <c r="E156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4966,160 +5037,160 @@
       <c r="A157" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E157" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>254</v>
+      <c r="B157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="16" t="s">
+      <c r="B158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E158" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>255</v>
+      <c r="F158" s="14" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F159" s="15" t="s">
-        <v>256</v>
+      <c r="B159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>257</v>
+      <c r="B160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>258</v>
+      <c r="B161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F162" s="15" t="s">
-        <v>248</v>
+      <c r="B162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B163" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="16" t="s">
+      <c r="B163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E163" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>249</v>
+      <c r="F163" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F164" s="20" t="s">
-        <v>250</v>
+      <c r="B164" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/window/windowList_appCore.xlsx
+++ b/window/windowList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD41730-B968-4010-9D67-84316CB61F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771A21A-59C2-4861-9E21-23FA2CAD0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="1044" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="270">
   <si>
     <t>Codice</t>
   </si>
@@ -823,6 +823,34 @@
   </si>
   <si>
     <t>YAX3MB</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
+  <si>
+    <t>YCSTK</t>
+  </si>
+  <si>
+    <t>Cambio Stock</t>
+  </si>
+  <si>
+    <r>
+      <t>manca</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ycstk</t>
+    </r>
+  </si>
+  <si>
+    <t>YCHNGSTK</t>
   </si>
 </sst>
 </file>
@@ -852,15 +880,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1005,11 +1039,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1064,6 +1150,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,13 +1680,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1591,9 +1698,41 @@
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="2">
+      <c r="B16" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1639,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F694E480-D1C0-4306-B7E3-8547E8554411}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,163 +1823,163 @@
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1848,7 +1987,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1866,122 +2005,145 @@
       <c r="F9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F21" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G21" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E22" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F22" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G22" s="17" t="s">
         <v>264</v>
       </c>
     </row>
@@ -1992,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,8 +2190,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2049,9 +2211,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2069,9 +2229,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2089,9 +2247,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2109,9 +2265,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2129,9 +2283,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2149,9 +2301,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2169,9 +2319,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2189,9 +2337,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2209,9 +2355,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2229,9 +2373,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2249,9 +2391,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2269,9 +2409,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2288,7 +2426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2296,8 +2434,8 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2317,9 +2455,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2337,9 +2473,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2357,9 +2491,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2377,9 +2509,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2397,9 +2527,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2417,9 +2545,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2437,9 +2563,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2457,9 +2581,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2477,9 +2599,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2497,9 +2617,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2517,9 +2635,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2652,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2544,8 +2660,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2565,9 +2681,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>88</v>
       </c>
@@ -2585,9 +2699,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
@@ -2605,9 +2717,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2625,9 +2735,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
@@ -2645,9 +2753,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
@@ -2665,9 +2771,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2685,9 +2789,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2705,9 +2807,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
@@ -2725,9 +2825,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2745,9 +2843,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
@@ -2765,9 +2861,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
@@ -2785,9 +2879,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
@@ -2805,9 +2897,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
@@ -2825,9 +2915,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
@@ -2845,9 +2933,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
@@ -2865,9 +2951,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
@@ -2885,9 +2969,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
@@ -2905,9 +2987,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="A47" s="15"/>
       <c r="B47" s="16" t="s">
         <v>88</v>
       </c>
@@ -2924,11 +3004,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2945,12 +3026,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A50" s="13"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
@@ -2965,12 +3042,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A51" s="13"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
@@ -2985,12 +3058,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A52" s="13"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
@@ -3005,12 +3074,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A53" s="13"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
@@ -3025,12 +3090,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
@@ -3045,12 +3106,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A55" s="13"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
@@ -3065,12 +3122,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A56" s="13"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
@@ -3085,12 +3138,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A57" s="13"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
@@ -3105,12 +3154,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A58" s="13"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
@@ -3125,12 +3170,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
@@ -3145,12 +3186,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A60" s="13"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
@@ -3165,12 +3202,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A61" s="13"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,13 +3217,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>28</v>
-      </c>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="16" t="s">
         <v>27</v>
       </c>
@@ -3204,11 +3233,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -3225,12 +3252,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A64" s="13"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
@@ -3245,12 +3268,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A65" s="13"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
@@ -3265,12 +3284,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A66" s="13"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
@@ -3285,12 +3300,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A67" s="13"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
@@ -3305,12 +3316,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A68" s="13"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
@@ -3325,12 +3332,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A69" s="13"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
@@ -3345,12 +3348,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A70" s="13"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
@@ -3365,12 +3364,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A71" s="13"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
@@ -3385,12 +3380,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A72" s="13"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
@@ -3405,12 +3396,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A73" s="13"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
@@ -3425,12 +3412,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
@@ -3445,12 +3428,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
         <v>27</v>
       </c>
@@ -3464,11 +3443,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -3485,12 +3465,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A78" s="13"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
@@ -3505,12 +3481,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A79" s="13"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
@@ -3525,12 +3497,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A80" s="13"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
@@ -3545,12 +3513,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A81" s="13"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3565,12 +3529,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A82" s="13"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3585,12 +3545,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A83" s="13"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
@@ -3605,12 +3561,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A84" s="13"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
@@ -3625,12 +3577,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A85" s="13"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
@@ -3645,12 +3593,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A86" s="13"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
@@ -3665,12 +3609,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="16" t="s">
         <v>27</v>
       </c>
@@ -3684,7 +3624,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3692,11 +3632,11 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -3713,9 +3653,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A90" s="13"/>
       <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
@@ -3733,9 +3671,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A91" s="13"/>
       <c r="B91" s="2" t="s">
         <v>96</v>
       </c>
@@ -3753,9 +3689,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A92" s="13"/>
       <c r="B92" s="2" t="s">
         <v>96</v>
       </c>
@@ -3773,9 +3707,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A93" s="13"/>
       <c r="B93" s="2" t="s">
         <v>96</v>
       </c>
@@ -3793,9 +3725,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A94" s="13"/>
       <c r="B94" s="2" t="s">
         <v>96</v>
       </c>
@@ -3813,9 +3743,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A95" s="13"/>
       <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
@@ -3834,9 +3762,7 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
@@ -3854,9 +3780,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A97" s="13"/>
       <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3874,9 +3798,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A98" s="13"/>
       <c r="B98" s="2" t="s">
         <v>96</v>
       </c>
@@ -3894,9 +3816,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A99" s="13"/>
       <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
@@ -3914,9 +3834,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A100" s="13"/>
       <c r="B100" s="2" t="s">
         <v>96</v>
       </c>
@@ -3934,9 +3852,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="2" t="s">
         <v>96</v>
       </c>
@@ -3954,9 +3870,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A102" s="13"/>
       <c r="B102" s="2" t="s">
         <v>96</v>
       </c>
@@ -3974,9 +3888,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A103" s="13"/>
       <c r="B103" s="2" t="s">
         <v>96</v>
       </c>
@@ -3993,11 +3905,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" s="16" t="s">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C104" s="16" t="s">
@@ -4013,11 +3923,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" s="2" t="s">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -4034,9 +3942,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A106" s="13"/>
       <c r="B106" s="2" t="s">
         <v>88</v>
       </c>
@@ -4054,9 +3960,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A107" s="13"/>
       <c r="B107" s="2" t="s">
         <v>88</v>
       </c>
@@ -4074,9 +3978,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A108" s="13"/>
       <c r="B108" s="2" t="s">
         <v>88</v>
       </c>
@@ -4094,9 +3996,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A109" s="13"/>
       <c r="B109" s="2" t="s">
         <v>88</v>
       </c>
@@ -4114,9 +4014,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A110" s="13"/>
       <c r="B110" s="2" t="s">
         <v>88</v>
       </c>
@@ -4134,9 +4032,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A111" s="13"/>
       <c r="B111" s="2" t="s">
         <v>88</v>
       </c>
@@ -4154,9 +4050,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A112" s="13"/>
       <c r="B112" s="2" t="s">
         <v>88</v>
       </c>
@@ -4174,9 +4068,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A113" s="13"/>
       <c r="B113" s="2" t="s">
         <v>88</v>
       </c>
@@ -4194,9 +4086,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A114" s="13"/>
       <c r="B114" s="2" t="s">
         <v>88</v>
       </c>
@@ -4214,9 +4104,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A115" s="13"/>
       <c r="B115" s="2" t="s">
         <v>88</v>
       </c>
@@ -4234,9 +4122,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A116" s="13"/>
       <c r="B116" s="2" t="s">
         <v>88</v>
       </c>
@@ -4254,9 +4140,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A117" s="13"/>
       <c r="B117" s="2" t="s">
         <v>88</v>
       </c>
@@ -4274,9 +4158,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A118" s="13"/>
       <c r="B118" s="2" t="s">
         <v>88</v>
       </c>
@@ -4293,10 +4175,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>83</v>
-      </c>
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
       <c r="B119" s="2" t="s">
         <v>88</v>
       </c>
@@ -4313,11 +4193,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="11" t="s">
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -4334,9 +4212,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A121" s="13"/>
       <c r="B121" s="2" t="s">
         <v>97</v>
       </c>
@@ -4354,9 +4230,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A122" s="13"/>
       <c r="B122" s="2" t="s">
         <v>97</v>
       </c>
@@ -4374,9 +4248,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A123" s="13"/>
       <c r="B123" s="2" t="s">
         <v>97</v>
       </c>
@@ -4394,9 +4266,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A124" s="13"/>
       <c r="B124" s="2" t="s">
         <v>97</v>
       </c>
@@ -4414,9 +4284,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A125" s="13"/>
       <c r="B125" s="2" t="s">
         <v>97</v>
       </c>
@@ -4434,9 +4302,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A126" s="13"/>
       <c r="B126" s="2" t="s">
         <v>97</v>
       </c>
@@ -4454,9 +4320,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A127" s="13"/>
       <c r="B127" s="2" t="s">
         <v>97</v>
       </c>
@@ -4474,9 +4338,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A128" s="13"/>
       <c r="B128" s="2" t="s">
         <v>97</v>
       </c>
@@ -4494,9 +4356,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A129" s="13"/>
       <c r="B129" s="2" t="s">
         <v>97</v>
       </c>
@@ -4514,9 +4374,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A130" s="13"/>
       <c r="B130" s="2" t="s">
         <v>97</v>
       </c>
@@ -4534,9 +4392,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A131" s="13"/>
       <c r="B131" s="2" t="s">
         <v>97</v>
       </c>
@@ -4554,9 +4410,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A132" s="13"/>
       <c r="B132" s="2" t="s">
         <v>97</v>
       </c>
@@ -4574,9 +4428,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A133" s="13"/>
       <c r="B133" s="2" t="s">
         <v>97</v>
       </c>
@@ -4594,9 +4446,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
         <v>97</v>
       </c>
@@ -5193,7 +5043,13 @@
         <v>248</v>
       </c>
     </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/window/windowList_appCore.xlsx
+++ b/window/windowList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771A21A-59C2-4861-9E21-23FA2CAD0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3B7CD-5761-46B4-9C96-9F09EBBF7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1044" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="279">
   <si>
     <t>Codice</t>
   </si>
@@ -93,9 +93,6 @@
     <t>YSMR</t>
   </si>
   <si>
-    <t>YAX3M*</t>
-  </si>
-  <si>
     <t>Entrate Diverse</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>Creazione Cliente*</t>
   </si>
   <si>
-    <t>YVSOH2</t>
-  </si>
-  <si>
     <t>YCREAUSC</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>[M:YBPC]CTY</t>
   </si>
   <si>
-    <t>* manca il ricerca</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID</t>
   </si>
   <si>
@@ -799,33 +790,6 @@
   </si>
   <si>
     <t>[M:VYBPC]POSCOD</t>
-  </si>
-  <si>
-    <t>YAX3MUSR</t>
-  </si>
-  <si>
-    <t>YAX3MB*</t>
-  </si>
-  <si>
-    <t>Backend utenti ArgoX3 Mobile</t>
-  </si>
-  <si>
-    <t>YAXMUSR</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Crea/Aggiorna</t>
-  </si>
-  <si>
-    <t>SPE</t>
-  </si>
-  <si>
-    <t>YAX3MB</t>
-  </si>
-  <si>
-    <t>BACKEND</t>
   </si>
   <si>
     <t>YCSTK</t>
@@ -851,6 +815,69 @@
   </si>
   <si>
     <t>YCHNGSTK</t>
+  </si>
+  <si>
+    <t>YBPC / YAX3MBPC</t>
+  </si>
+  <si>
+    <t>YVBPC /YX3MVBPC</t>
+  </si>
+  <si>
+    <t>YAX3M</t>
+  </si>
+  <si>
+    <t>YVCSOH</t>
+  </si>
+  <si>
+    <t>YGIAC (finestra di laboratorio)</t>
+  </si>
+  <si>
+    <t>YVSOH1</t>
+  </si>
+  <si>
+    <t>Ricerca Clienti *</t>
+  </si>
+  <si>
+    <t>Ricerca Odv*</t>
+  </si>
+  <si>
+    <t>Visualizza Odv *</t>
+  </si>
+  <si>
+    <t>YCLEANENT</t>
+  </si>
+  <si>
+    <t>YCLEANUSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulisci </t>
+  </si>
+  <si>
+    <t>Clienti</t>
+  </si>
+  <si>
+    <t>YCLEANBPC</t>
+  </si>
+  <si>
+    <t>YVBPC/YX3MVBPC</t>
+  </si>
+  <si>
+    <t>YVCSOH*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Ricerca*</t>
+  </si>
+  <si>
+    <t>Validante*</t>
+  </si>
+  <si>
+    <t>W*</t>
+  </si>
+  <si>
+    <t>B*</t>
   </si>
 </sst>
 </file>
@@ -889,12 +916,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1055,47 +1082,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1152,25 +1219,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1453,25 +1547,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1496,245 +1590,250 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>84</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>266</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="21" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="2">
         <v>5</v>
       </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1750,13 +1849,13 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1778,31 +1877,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F694E480-D1C0-4306-B7E3-8547E8554411}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -1822,329 +1921,501 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="G2" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="F5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="F8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="F23" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="E25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="E26" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>264</v>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2156,26 +2427,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B87"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
@@ -2190,243 +2461,243 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2434,225 +2705,225 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>73</v>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2660,971 +2931,971 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>76</v>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>28</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F49" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
-      <c r="B63" s="25" t="s">
-        <v>88</v>
+      <c r="B63" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>88</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3632,1420 +3903,1420 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>96</v>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="15"/>
+      <c r="B104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F103" s="14" t="s">
+      <c r="E104" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13"/>
-      <c r="B105" s="25" t="s">
-        <v>88</v>
+      <c r="B105" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
-      <c r="B120" s="25" t="s">
-        <v>97</v>
+      <c r="B120" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F136" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="C151" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F154" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F164" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F147" s="14" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F164" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/window/windowList_appCore.xlsx
+++ b/window/windowList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3B7CD-5761-46B4-9C96-9F09EBBF7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D76207-837C-4B89-86DD-474F6CF512AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26730" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove finestre" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="285">
   <si>
     <t>Codice</t>
   </si>
   <si>
     <t>Descrizione</t>
-  </si>
-  <si>
-    <t>Cod.Att.</t>
   </si>
   <si>
     <t>Finestra</t>
@@ -878,6 +875,27 @@
   </si>
   <si>
     <t>B*</t>
+  </si>
+  <si>
+    <t>YAX3MSMR (YSMR)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Fin Modello</t>
+  </si>
+  <si>
+    <t>attivo</t>
+  </si>
+  <si>
+    <t>Visualizzazione</t>
+  </si>
+  <si>
+    <t>Vid Testata</t>
+  </si>
+  <si>
+    <t>Schede</t>
   </si>
 </sst>
 </file>
@@ -921,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1158,11 +1176,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1230,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,22 +1297,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1550,290 +1605,321 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B10" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G10" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1843,30 +1929,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>280</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1879,543 +1986,543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F694E480-D1C0-4306-B7E3-8547E8554411}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>20</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27" t="s">
+      <c r="G2" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="F8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="F15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27" t="s">
+      <c r="E16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="F25" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="E26" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="B28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="F29" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>260</v>
+      <c r="G29" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2427,277 +2534,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD419AD1-E9F0-41EE-B31E-22F4D8857574}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2705,225 +2812,225 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2931,971 +3038,971 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="2"/>
       <c r="C62" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F75" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3903,1420 +4010,1420 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F136" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="C151" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F153" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F162" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="2" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C164" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F164" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F164" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
